--- a/500all/speech_level/speeches_CHRG-114hhrg93775.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93775.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>409888</t>
   </si>
   <si>
-    <t>Bill Shuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shuster. The committee will come to order. I want to welcome everybody here today. I guess it is appropriate to say top o' the morning on this St. Patrick's Day. I notice that our three witnesses, none of them have green on. Mayor, is that green? I cannot tell. But with the last name of McCrory, you do not need to wear green. We know you are Irish. There you go.    But again, it is great to have you here. Our witnesses are the Honorable Patrick McCrory, who is the Governor of the State of North Carolina, testifying on behalf of the National Governors Association; the Honorable Ralph Becker, mayor of Salt Lake City, Utah, testifying on behalf of the National League of Cities; and the Honorable John Cox, who is the director of the Wyoming Department of Transportation, testifying on behalf of the American Association of State Highway and Transportation Officials. Thank you all for being here today. We really look forward to hearing from you.    This is our second hearing on the surface transportation reauthorization, which is one of our committee's top priorities. And it should be; it is a top priority for the Nation. We are actively working together with Ranking Member DeFazio and both sides of the aisle, working with our leadership in the House and the Senate, the Ways and Means Committee, and others to figure out the funding issues.    And because both sides of the aisle, both sides of the Capitol, and both ends of Pennsylvania Avenue are talking about the need for a long-term transportation or surface transportation bill, I feel confident we will get there, making the investments we need to make sure America is competitive and continues to improve the quality of life for Americans.    So again, I look forward to hearing from all of you today, and with that, I will yield to the ranking member, Mr. DeFazio, for an opening statement.</t>
   </si>
   <si>
     <t>400100</t>
   </si>
   <si>
-    <t>Peter A. DeFazio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeFazio. Thank you, Mr. Chairman. Having got here not very long ago due to a delayed flight, I forgot about the green. And I am half Irish, DeFazio, O'Shea, Crowley, and Buono. So I actually did bring, though, a green and yellow chart. So if I could have the green and yellow chart from the woman dressed all in green.    The green and yellow chart you see before you in honor of St. Patrick's Day--here is your version so you do not have to crane your neck, Mr. Chairman--shows the dependence of the States on Federal funding. And as you can see, it is generally about--the average is 51 percent. Many States are--we have 87, is I believe, the highest--well, no, 93 for Alaska, 79 over there for South Carolina. These are very high numbers. Oh, Rhode Island, 102. Oops, sorry about that.    So this is what happens if there is a shortfall--that is good. Thanks, Helena--in Federal funding. The chairman already referenced his desire, our common desire, to do a very robust 6-year reauthorization with adequate funding. I expect funding will be one of the linchpin issues. I will not go into the options that are out there, but there are options to move us forward with more robust funding.    But what I will say is that spring starts in a week, and that really is the traditional beginning of the construction season for the year. And States have already notified the Federal Government that they will be delaying or postponing or canceling projects. And I expect the number of canceled or delayed projects will grow very, very quickly over the coming weeks if we do not have a short-term bill.    Yes, we have a common objective on a 6-year bill. But just to get to the end of this year with anemic levels of spending would require $10 billion, just slightly less than $10 billion.    So we need some sort of a commitment from the Federal Government in the next week or two or three of $10 billion or we will see a dramatic dropoff in construction activity this summer, costing the country jobs, costing the country needed investment, and actually causing higher future costs because much of this infrastructure is deteriorating at a rate that accelerates at certain points in its deterioration, where suddenly what was a million-dollar problem last year becomes a $5 million problem this year and becomes a bridge replacement problem next year.    So I feel a tremendous sense of urgency. I did have an opportunity, since I spent so many hours getting here yesterday, to read all your testimony. I find much to agree with in there, and look forward to hearing more about it.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. It is my honor to introduce my Governor from the great State of North Carolina. And not only does he come to us with great experience as a Governor, but having served as a mayor, as a businessman, I know full well, Governor, that you understand transportation because you have traveled from Murphy to Manteo, some 545 miles.    To put it in perspective, that is like going from Washington, DC, to Maine. And if you can put all the different roads and different avenues of transportation that you would encounter from Washington, DC, to Maine, that is similar to what we have in North Carolina.    So as a pro-growth, as a guy who is focused on jobs and knowing the importance of that connection, it is my honor to welcome you here and introduce my friend and our Governor, Governor Pat McCrory.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Becker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Becker. Thank you, Chairman Shuster, and thank you so much----</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t xml:space="preserve">    Mr. Shuster. Thank you, Mayor.    And with that, Director Cox, please proceed.</t>
   </si>
   <si>
-    <t>Cox</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cox. Chairman Shuster and Ranking Member DeFazio, members of the committee, my name is John Cox and I am serving as president of the American Association of State Highway and Transportation Officials or AASHTO, which is much easier to say. I have also had the privilege of serving as the Wyoming Department of Transportation director for just a little bit over 10 years.    My main message this morning is to urge prompt action on a well-funded, long-term highway transit and highway safety bill. Our country needs a Federal transportation system program with robust investment levels coupled with long-term funding stability. Furthermore, the program should provide States with flexibility by preserving the percentage of funds distributed by formula, and by streamlining regulations and program requirements.    Throughout our country's history, transportation has played a pivotal role in the success of our economy. While States have done a great job of addressing transportation within their boundaries, there is clearly a need for a cohesive national transportation system.    In Wyoming, for instance, I-80 stretches 401 miles across the southern part of the State. Over half of the traffic on this route is trucks, and over three-quarters of that truck traffic is in transit through Wyoming between Midwest markets and west coast ports, carrying all manner of goods, from agricultural commodities to raw materials and manufactured goods. This traffic, which is national commerce, would not be possible without an effective interstate transportation system.    As you know, our national highway program at its core is a federally funded, State-administered program based on a 100-year-old partnership between the Federal Government and State DOTs. The State department of transportation plays a critical role in ensuring a safe, reliable, and efficient transportation network.    In 2013, my Governor, Governor Matt Mead, sought to establish a sustainable State funding base for transportation projects by signing a 10-cent increase in the State motor fuels tax law. Supported by business and civic groups like the Wyoming Taxpayers Association, and with strong legislative leadership, this action has allowed us to raise over $70 million per year to invest in both State and local transportation infrastructure.    Dozens of other States are successfully adopting legislation that increases revenue for transportation investment. But it is important to note that States take action to supplement the Federal program and not as a substitute for it.    State departments of transportation have strong partnerships with local governments in their respective States. The transportation planning process requires our DOTs to work extensively with local planning agencies and the public in developing multimodal transportation plans and identifying projects that are supported by Federal dollars.    This process works, and it is the foundation of the performance-based program requirements that were established 2\\1/2\\ years ago in MAP-21. State DOTs have strong, productive partnerships with local governments, and the transportation planning process is working well. We would not alter the federally funded, State-administered nature of the program.    Before closing, let me comment on some regulatory points. We need to be careful when it comes to developing and implementing Federal regulations. A number of currently proposed rules would impose new requirements, increasing administrative costs at a time when construction inflation eats away at the flatlined Federal funding level.    One proposed rule would have States collect multiple data items for all public roads, including unpaved and low-volume roads. Scarce dollars would be much better used on road and bridge projects. Simply put, we need to continue working on reducing administrative burdens and maximizing actual transportation outcomes and services from Federal program dollars.    MAP-21 made significant changes in the project delivery process to accelerate the speed at which we can maintain and improve highway and transit projects. We can build on this with additional streamlining provisions in the next bill, and we can propose streamlining ideas.    To conclude, AASHTO remains committed to helping Congress pass a robust, long-term surface transportation bill as soon as possible. The current extension expires in the middle of this spring construction season, and already several State DOTs are postponing needed projects because of the unpredictable Federal funding.    For example, Tennessee, Arkansas, and my State, Wyoming, have already postponed multiple projects, ranging from $28 million in Wyoming to $400 million in Tennessee, because of the uncertainty in Federal funding. The sooner Congress acts, the greater the likelihood that these important projects will not be pushed back another year.    Mr. Chairman and committee, I want to thank you again for the opportunity to testify today, and I look forward to the questions.</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Thank you. And I think there is a lot of support for passage of a strong transportation highway bill. You all testified that you support a strong Federal program. Is that right? Governor? Governor? Governor? We have got three nods, for the record.    And this Federal activity in transportation consists of two things. It consists of funding and basically regulation. Is that pretty much correct, too, Governors? Yes. So I do not think anyone testified that you want more Federal regulation. In fact, I heard you do not want that. So basically, what you are here for is asking for more Federal funding.    In MAP-21, we tried to do everything we could to devolve much of the funding and the responsibility to the States. I would have liked to have gone even further. When you say devolution, some folks mean turn the whole thing over to the States. Others mean that we can be a strong partner and help finance.    Let's go through regulations first. We streamlined the permitting process. Mr. Gibbs and all of these guys here, Mr. Ribble, all these guys did an incredible job, I think, in streamlining that. We also allowed devolution of some of the permitting. And I understand California, Texas--I know Florida is working on it, and I think Utah has an application in to take over some of the permitting. What about the others? Can you comment? North Carolina?    Governor McCrory. Sure. What we have liked so far is some of the categorical extensions and giving us some flexibilities. And that is what I am really looking for.</t>
   </si>
   <si>
@@ -205,9 +187,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you, Mr. Chairman. I very much appreciate this second hearing.    Mr. Cox, perhaps also Mayor Becker, not until I became ranking member of the Subcommittee on Highways and Transit had I focused on a big part of our transportation bill that I bet most of us do not even know much about, and that has to do with roads through Federal lands.    I think of this issue because of Wyoming and Utah. In my own district there is Arlington Memorial Bridge, for example, the gateway to Arlington Cemetery and to Virginia and to all the Southern States. But that is not included in your State allocation, and it should not be because these are assets on Federal lands.    As a result, because we have not paid as much attention to these roads through places like Yellowstone and Grand Teton and the Arlington Memorial Bridge that I just named, there is this huge, growing backlog, which is not the responsibility of the States.    I wonder, Mr. Cox, for example, if you--by the way, I assume that these Federal lands are responsible for some tourism and therefore for revenue to the States. I wonder if you would say something about the transportation needs on Federal lands in places like Wyoming. Do you agree that they are a critical component, albeit not from your State allocation, of the needs that must be attended to by a bill?</t>
   </si>
   <si>
@@ -232,15 +211,9 @@
     <t>412400</t>
   </si>
   <si>
-    <t>Eric A. "Rick" Crawford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Crawford. Thank you, Mr. Chairman. Gentlemen, I appreciate you being here today.    Governor McCrory, I want to visit with you a little bit. Your State took on a pretty big change in your transportation project selection process. What prompted you to do that? Talk about that a little bit.    Governor McCrory. Well, we were making a lot of decisions on our roadbuilding based upon politics. And as you went down, we did not have the interconnectivity that we should have had. You would go down from the East to the West, North to the South, and we would have highways going from two lanes to four lanes back to two lanes back to eight lanes. And it made no rhyme or reason on why the roads were wide in one area and very narrow in others. And we also saw that it was not an efficient use of limited tax dollars.    So in a bipartisan agreement, Republicans and Democrats both agreed to change that formula. In fact, my good friend, Mr. Rouzer, helped support that when he was in the State legislature. We now base our formula on how we spend money on congestion, on economic opportunity, and on safety, the three major criteria of how we decide to spend the money.    And instead of just looking at project by project, we are now looking at, in our bond referendum, which I hope to bring to the voters of North Carolina, a connectivity plan--for example, from Asheville down to the coast of Wilmington near your district. And that is, we look for the choke points in that 6-hour drive and we unleash the choke points, which does not mean every county between those choke points is going to have a project.    But if we unleash the two or three major choke points, it benefits every county between Asheville and Wilmington, North Carolina. And then we have good commerce among counties, just like I ask for the same interconnectivity on I-95 or I-40 or I-85 or I-77 or I-26, which are all intersecting in our State, which are important for the commerce not only within our State but between States.    I see the congressman from South Carolina. We need connectivity between Myrtle Beach and Wilmington. It is a very important corridor.</t>
   </si>
   <si>
-    <t>Rice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rice. Do not forget 73.    Governor McCrory. So that connectivity crossing political jurisdiction is extremely important, and that is the plan that we have implemented in North Carolina. And in just the short term--I think I have statistics in front of me that have been given by my staff--we have now, I think, added about 300 more projects based upon the new formula. And they are going to be much more interconnected projects, which have long-term sustainability for all of North Carolina, and I think the Nation also in the Southeast.</t>
   </si>
   <si>
@@ -256,9 +229,6 @@
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman.    Well, first let me say I enjoyed very much your comments. I agree with just about everything you said, and coming from a State like New Jersey, where fees are very prominent on any roads. So I was just wondering, you are looking at alternative funding. And I know that--this is a bad word, toll roads--and I was just wondering where that fits in.    And Governor, my best friend is moving to your State, and he just told me that you built a road where you charge 40 cents in North Carolina, and people are boycotting it because you are charging a toll on it. I was just wondering if that is accurate. But I cannot imagine that the States you come from, tolls are an alternative for funding transportation projects.    Governor McCrory. Well, one rule we have in our State is if we ever do a toll, there also has to be an alternative for people to have another option to use. So while we are experimenting in tolls right now, we do have a road outside of Raleigh which is a toll road, and then we are experimenting also. We are in the trial period----</t>
   </si>
   <si>
@@ -295,9 +265,6 @@
     <t>412463</t>
   </si>
   <si>
-    <t>Bob Gibbs</t>
-  </si>
-  <si>
     <t>actually pretty close to Washington, DC.    We think that their unemployment rate has not been reduced as much as other parts of the State have. We have gone from the fifth highest unemployment rate; now we are not even in the top 30, I believe. So we have done very well. But there are pockets where we need still more connectivity.    And their best connectivity in Elizabeth City, and this is coming from the Governor of North Carolina, is to connect to Hampton Roads, Virginia. Connecting to that economic region would be the best benefit to them. So where I would like to see the Federal Government is to see, where do we need that connectivity that crosses political jurisdictions, especially statewide jurisdictions?    Another one is the connectivity to South Carolina and North Carolina, from Wilmington to Myrtle Beach, which is a major travel and tourism destination. I want Myrtle Beach to do well. I want Wilmington and the rest of our coast to do well. But to have that interconnectivity is very important for the entire economic region.    And economic regions, again, do not recognize these political boundaries when we are recruiting new industrial customers or travel and tourism. And I think that is where we could use your help. And that is why I think the Federal Government has to play a role, so we do not have these logjams along the coast or connecting our major regions.    Mr. Gibbs. Thank you. Also, Governor, I think Mr. Cox--especially Mr. Cox--you talked in your testimony about being careful on the regulatory side. And Governor, you mentioned wetlands.    There is a new regulation that the administration has proposed and they are probably trying to implement here in a month or so. It is called Large United States Borders. Have any of you looked at that and what the impact might be to your States on your road projects?</t>
   </si>
   <si>
@@ -325,9 +292,6 @@
     <t>412524</t>
   </si>
   <si>
-    <t>Elizabeth H. Esty</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Esty. Thank you, Chairman Shuster and Ranking Member DeFazio, for holding today's important hearing on the reauthorization of the Federal surface transportation program. And I would very much like to thank our distinguished witnesses for their testimony and taking time from your very busy schedules to be here today.    Governor McCrory, I will follow up with you. But I was just meeting yesterday with our Governor Malloy, who has a 30-year plan. And I want to commend you for your long-range planning. And thank you for emphasizing the importance to this committee of Congress doing its job to provide long-term, sustainable funding for the Governors, the mayors, and all of our planners in our local communities to make good decisions for the American people. So we will follow up with specific questions for you.    Governor McCrory. Thank you.</t>
   </si>
   <si>
@@ -352,9 +316,6 @@
     <t>400116</t>
   </si>
   <si>
-    <t>John J. Duncan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan [presiding]. Thank you.    Next on our side is Mr. Rice.</t>
   </si>
   <si>
@@ -421,9 +382,6 @@
     <t>412516</t>
   </si>
   <si>
-    <t>Julia Brownley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you, Mr. Chairman. And I want to thank both of you and the Governor for being here today and testifying in front of our committee. I am a new member of the committee. I am very honored to be here.    Last week I was at home in my district and met with every single transportation stakeholder in my district, and their message to me is the same message, I think, that you are giving the committee, is that we need a long-term, sustainable finance surface transportation bill here in Congress.    And we all know that the vexing challenge here is, what is the mechanism? How are we going to provide that revenue source to pay for the so important investments that we need to make? So I just wanted to ask all of you, in terms of the organizations that you represent, has there been a discussion or any specific recommendations from the National League of Cities or from the American Association of State Highway and Transportation Officials about a specific position with raising the gas tax or a one-time or ongoing repatriation method, if you have made any recommendations or had any of those discussions?</t>
   </si>
   <si>
@@ -466,9 +424,6 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Well, thank you very much, Mr. Chairman. I appreciate the time, and I appreciate the witnesses being here today.    I have got one first question to Mr. Becker. Thank you for your service, Mayor. I believe more local control of our transportation dollars should be a priority. And my district is mostly rural, with some smaller urban areas like Bloomington-Normal, Champaign, Illinois, Springfield, Illinois--home to Abraham Lincoln--and Decatur, Illinois.    I want to ask you a quick question. What changes would you recommend this committee make to help our communities that may not be like yours, with less than 200,000, get their fair share of Federal transportation dollars?</t>
   </si>
   <si>
@@ -496,9 +451,6 @@
     <t>400232</t>
   </si>
   <si>
-    <t>Rick Larsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman.    Mr. Cox, the first question I have is for you from a perspective of AASHTO. I was talking with our Secretary Lynn Peterson last week from Washington State a little bit about this issue of practical design. And despite the efforts of AASHTO, only a handful of States have actually adopted practical design consistently, something that in Washington State we are trying to do, and trying to perhaps get that to be used more.    Can you talk a little bit about why States regularly are not using practical design to develop and deliver projects, and what some of the hurdles may be?</t>
   </si>
   <si>
@@ -532,9 +484,6 @@
     <t>412646</t>
   </si>
   <si>
-    <t>Lee M. Zeldin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zeldin. Thank you, Mr. Chairman. And appreciate you doing this hearing on an important issue. I represent New York 1. This is the East End of Long Island, the First Congressional District of New York. A lot of people think of Transportation and Infrastructure Committee thinking of roads and bridges. My district is almost completely surrounded by water, so the Army Corps jurisdiction, the FAA jurisdiction, it is great to be on this committee.    I just wanted to put a little bit of perspective on this type of district. A lot of people ask me where the district is and I say, it is the Hamptons. Oh, yes, we know where your district is. We have the vineyards of the North Fork, the five East End towns. But almost 500,000 people who live in my district live in a small town just west of the Hamptons called Brookhaven, and it has just under 500,000 residents.    Now, this town has only 21 miles of interstate. It is called I-495, the Long Island Expressway. The town highway department is responsible for over 2100 miles of roadway, and the need for road repairs go way beyond this one stretch of Federal highway.    We had a pretty rough winter up in the Northeast. A lot of people have read about it coming from warmer climates elsewhere in the country. My colleague, Carlos Curbelo, sent a Tweet where he had a picture of him down in Miami asking Elise Stefanik, Ryan Costello, and I how the weather was up in our area in the middle of one of those blizzards. I appreciate that.    [Laughter]</t>
   </si>
   <si>
@@ -571,9 +520,6 @@
     <t>412258</t>
   </si>
   <si>
-    <t>André Carson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman.    Mr. Cox--well, Mayor, my com director used to work for KCPW. She wants to meet you. But I will let you guys talk later. And she is from your State.    Mr. Cox, many of us have worked hard, as you know, to reauthorize the DBE program at DOT, most recently, in MAP-21. We are starting now to work on the new highway reauthorization, but it has been deeply disappointing to discover weak oversight, quite frankly, with regards to this program described in the Department of Transportation inspector general's report.    Now, Federal agencies, sir, as you well know, say they rely on State and local agencies for data with regards to contracting and subcontracting. But I want to make sure that small and disadvantaged businesses will be able to participate. Could you tell us, sir, with your expertise, about things that are being done to improve the performance of the DBE program?</t>
   </si>
   <si>
@@ -625,9 +571,6 @@
     <t>400290</t>
   </si>
   <si>
-    <t>Grace F. Napolitano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Napolitano. Thank you, Mr. Chairman. And to the gentlemen, sorry I was not here to hear your presentations, but I had another commitment also.    My community, the area that I represent, is greatly impacted by freight movement. And while it creates jobs, there is an impact on the communities that sometimes becomes adverse. I want to ask if you feel we should include a freight movement program in the next transportation bill? And should we prioritize projects that mitigate the negative impacts that freight has in our communities?</t>
   </si>
   <si>
@@ -679,9 +622,6 @@
     <t>412416</t>
   </si>
   <si>
-    <t>Rob Woodall</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Woodall. Thank you, Mr. Chairman. I recall when we opened this hearing the chairman and the ranking member both talking about devolution and put you both on the spot talking about devolution.    It strikes me, and I have only had a voting card for 4 years, but when you have a flat rate per gallon gas tax and the number of gallons purchased is going down and it is not indexed for inflation and it has stayed in place for two decades, we kind of have devolution going on today. If you are going to take care of your roads and bridges and we are not footing the bill, somebody is footing the bill.    My question is, I found Mr. Cox's testimony about 75 percent of the traffic going through Wyoming being in transit from one place to another very compelling, and I feel that burden of responsibility as a Federal legislator to focus on those opportunities.    But I worry that accepting those dollars for noncritical freight path projects is reducing the bang for the buck that I am getting. I will give you one example, and Mayor, you may have had this same experience.    We just did a $200 million bond initiative. I only represent two counties. One of them just did a $200 million bond initiative because they wanted the roads widened and the State did not have the money. The Feds were not providing the money. Two hundred million dollars, we are going to do it ourselves. It is going to be 1 year from the date of the vote to groundbreaking. One year in the State of Georgia. We rank number one and number two, respectively, in bringing in projects on time and under budget in Georgia.    So when I delegate those dollars elsewhere and folks start doing things like creating local hiring initiatives, which I understand why that is important though it might not be the best economic outcome; when folks start putting in their own perhaps value-added but also cost-added efforts into a project, I begin to question whether or not I am giving the American taxpayer the best bang for their buck.    How do we get more local governments with skin in that game on the one hand? And number two, what can we do with those Federal dollars? I will stipulate that they are going to be provided, but to get you from receipt of those dollars to groundbreaking in 1 year.    The fact that my friends in Florida seem to not take Federal dollars for new construction and only take Federal dollars for maintenance seems to suggest to me we have run far afield if what our collective goal here is building things and making America more efficient in terms of transit. Mayor?</t>
   </si>
   <si>
@@ -703,9 +643,6 @@
     <t>412263</t>
   </si>
   <si>
-    <t>Donna F. Edwards</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Edwards. Thank you very much, Mr. Chairman. And thank you to our witnesses today because I think you have been really patient. But you can also tell how important this issue is to so many of us on this committee and in the Congress.    We do know that neglected problems have a way eventually of falling down on us. And I think in my district we had that experience just a few weeks ago in early February when a block of concrete fell down from an overpass around our Capital Beltway onto a woman who was just running her errands. Fortunately, she was not injured and did not injure others on the road, but it could have been a disaster.    I have said before on this committee, I shudder to think that every time I am driving, I have to actually look up in addition to paying attention to what is going on around me on the roads. And so we are at a really important time when we have to figure out both how we pay for it and the fact that we are investing in our infrastructure.    The incident that happened there is just illustrative of many incidents that have happened over the course of time, even since I've been on this committee. We were dealing then with the aftermath and the report back from the bridge collapsing in Minnesota. And I would note that on that project, the process was expedited, Federal funding was provided, local funding provided, and the project was completed in short order. So we can actually do this when it comes to our infrastructure.    The Woodrow Wilson Bridge right out in my district connecting Maryland and Virginia and the District of Columbia, all three of the jurisdictions put in their money. The Feds put in Federal money. And the project was completed on budget and on time.    And so I think we have a number of examples where we can go through a process that respects the environmental considerations, that respects the local jurisdictions, allows them to put up the resources that they need, and gets the job done.    And I have a question for you all. One, for AASHTO, Mr. Cox, I read through your testimony and I appreciate that you make a note to all of us that Federal funding is a supplement--the State funding is a supplement to the Federal program. That is your words, not as a substitute for Federal programs.    Because I think sometimes we forget that, and as the Highway Trust Fund is preparing to expire and we have to reauthorize that and extend it for a period of time so that long-term projects can get done and not just the short-term projects, I am reminded that in our State we took some extraordinary measures a couple of years ago.    And so we actually are going to be able to wait the tide out and will not run out of money, actually, until next year that would supplement our Highway Trust Fund. But that is not the case for all of our States, and it means that we are not going to be able to spend money on some projects that we would ordinarily do if we had an assurance of a Federal partner.    Also, in your testimony, Mr. Cox, you indicated that there has to be an important balance struck between transit and traditional highway funding. And I appreciate your striking that because as Mayor Becker knows, Governor McCrory if he were here, he would say the same thing. You have got jurisdictions that serve as regional hubs. We need the combination of the transit and the roads for our agriculture and other kinds of commerce.    And so I wonder if the two of you could say what kinds of revenue sources your organization would support or not. Is it vehicle miles traveled? Is it an increase in the gas tax? Is it indexing the gas tax to inflation? Is it an infrastructure bank? Be really specific because we have to be specific when it comes to getting our work done on this committee.</t>
   </si>
   <si>
@@ -721,9 +658,6 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Babin. Yes, sir. Thank you, Mr. Chairman. I really appreciate it.    A major issue that is facing my district, 36 in the State of Texas, is the integration of Highway U.S. 59 into Interstate 69. And while the benefits of this project are very numerous, there is also a very strong concern by some of my constituents that these new Federal truck weight standards will disrupt the decades-long practices of loggers and other industry.    Simply put, the route of this highway will stay the same, but new weight standards could dramatically impact the way companies throughout Texas and America do business while traversing the highway. Notably, log trucks will have to reduce their weight by 4 tons, a substantial loss with mills and logging contractors and truckers that already have very thin profit margins. Many of these loggers have already left the industry in recent years.    My first question: Throughout your time as a mayor or as the State department of transportation director, have you confronted a similar challenge as regards upgrading an existing State or U.S. highway to a Federal interstate? Are there not a number of States where weights are grandfathered in, where a State highway or a U.S. highway has become an interstate? Can you speak to that, please, sir?</t>
   </si>
   <si>
@@ -760,9 +694,6 @@
     <t>412645</t>
   </si>
   <si>
-    <t>Cresent Hardy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hardy [presiding]. The gentleman's time has expired. I'd like to turn the time over to----</t>
   </si>
   <si>
@@ -772,9 +703,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. Thank you, Mr. Chair. Thank you gentlemen for being here. And without being repetitious, I just want to say I join my colleagues in urging that--that we all dig deep to find a sustainable funding source for our Highway Trust Fund.    I want to move on, to say that I was a mayor for 8 years, so I am very sympathetic to the local funding issues. And without just repeating some of the testimony, I would ask you, Mayor Becker: Is there a specific formula that you advocate--I think we talked--you talked about sending money directly to the MPOs, but is there any incentive program or formula that you would recommend?</t>
   </si>
   <si>
@@ -808,9 +736,6 @@
     <t>412410</t>
   </si>
   <si>
-    <t>Daniel Webster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Webster. Thank you, Mr. Chair.    Mr. Cox, in the area of transportation-disadvantaged funding, there has been a GAO report from time to time identifying all kinds of waste, and this particular case in almost every one of those reports TD is mentioned. And the reason is because there's 87 different programs, some of which are--there could be one person covered by eight different TD programs.    Theoretically, for instance in Orlando, Florida, where I'm from, that we have a new VA that's being built, a huge beautiful building that's almost complete, and the VA is working on a program where they would buy vehicles and would give door-to-door service for the--for any person that's in the system.    On the other hand, our same provider of transit also offers door-to-door service. So that's just two. There's some programs where they cover one person, like I said, eight different times; same need. And theoretically, could have a transit vehicle going down a street picking up one person, and then there could be someone else, who is qualified under the same exact thing, being picked up by someone else.    I just wondered if AASHTO has done anything in trying to grab hold of that issue at all?</t>
   </si>
   <si>
@@ -842,9 +767,6 @@
   </si>
   <si>
     <t>412426</t>
-  </si>
-  <si>
-    <t>Todd Rokita</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rokita. I thank the chairman. I appreciate the testimony. I know it looks like we're coming up on about 3 hours of you guys--gentlemen sitting here, so I appreciate your patience.    I'm new to the committee, and so a lot of folks have been visiting me with different interests in my office and I wanted to get your opinion, either your association's opinion or your personal opinion or both on a couple of things.    First, regarding project labor agreements, or Davis-Bacon or however you want to talk about it. Is there an appreciable difference in quality between non-PLA projects and ones that are done under project labor agreements or through Davis-Bacon? And is there an appreciable difference in cost?    [Pause]    For example, I'm told--alright, via some information I'm receiving, that you can build 20 percent more road if you don't use a union. What's your opinion, as experts in the field?</t>
@@ -1351,11 +1273,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1375,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1403,11 +1321,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1427,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1455,11 +1369,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1481,11 +1393,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1505,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1533,11 +1441,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1557,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1585,11 +1489,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1609,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1637,11 +1537,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1661,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1689,11 +1585,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1715,11 +1609,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1739,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1767,11 +1657,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1791,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1819,11 +1705,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1845,11 +1729,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1869,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1895,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1921,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1947,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1973,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1999,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2027,11 +1897,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2051,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2079,11 +1945,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2103,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2129,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2155,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2181,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2207,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2233,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
         <v>50</v>
-      </c>
-      <c r="H36" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2259,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2285,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2311,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2337,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2365,11 +2209,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2389,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2415,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2441,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2467,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2493,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2519,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
         <v>62</v>
-      </c>
-      <c r="G47" t="s">
-        <v>63</v>
-      </c>
-      <c r="H47" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2547,11 +2377,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2571,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2597,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>74</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2623,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2649,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
-      </c>
-      <c r="G52" t="s">
-        <v>72</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2677,11 +2497,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2701,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" t="s">
-        <v>80</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2727,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" t="s">
-        <v>80</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2753,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s">
-        <v>80</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2779,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2805,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" t="s">
-        <v>80</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2831,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2857,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" t="s">
-        <v>80</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2883,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2909,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
         <v>79</v>
-      </c>
-      <c r="G62" t="s">
-        <v>80</v>
-      </c>
-      <c r="H62" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2935,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
         <v>80</v>
-      </c>
-      <c r="H63" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2963,11 +2761,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2987,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>92</v>
-      </c>
-      <c r="G65" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3013,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3039,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>92</v>
-      </c>
-      <c r="G67" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3065,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>92</v>
-      </c>
-      <c r="G68" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3091,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3117,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>92</v>
-      </c>
-      <c r="G70" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3143,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3171,11 +2953,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3195,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>102</v>
-      </c>
-      <c r="G73" t="s">
-        <v>103</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3221,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>102</v>
-      </c>
-      <c r="G74" t="s">
-        <v>103</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3247,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3273,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>102</v>
-      </c>
-      <c r="G76" t="s">
-        <v>103</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3299,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3325,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3351,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>102</v>
-      </c>
-      <c r="G79" t="s">
-        <v>103</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3377,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>111</v>
-      </c>
-      <c r="G80" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3403,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>74</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3429,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3455,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>74</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3481,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3507,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>74</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3533,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3559,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s">
-        <v>74</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3585,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3611,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s">
-        <v>74</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3637,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3663,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>74</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3689,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3715,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>74</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3741,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3767,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s">
-        <v>74</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3793,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3819,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>74</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3845,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3871,13 +3599,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>74</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3897,13 +3623,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>111</v>
-      </c>
-      <c r="G100" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3923,13 +3647,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
-      </c>
-      <c r="G101" t="s">
-        <v>135</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3949,13 +3671,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3975,13 +3695,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>134</v>
-      </c>
-      <c r="G103" t="s">
-        <v>135</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4001,13 +3719,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4027,13 +3743,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>134</v>
-      </c>
-      <c r="G105" t="s">
-        <v>135</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4053,13 +3767,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4079,13 +3791,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>134</v>
-      </c>
-      <c r="G107" t="s">
-        <v>135</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4105,13 +3815,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4131,13 +3839,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>134</v>
-      </c>
-      <c r="G109" t="s">
-        <v>135</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4157,13 +3863,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4183,13 +3887,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>134</v>
-      </c>
-      <c r="G111" t="s">
-        <v>135</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4209,13 +3911,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4235,13 +3935,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>111</v>
-      </c>
-      <c r="G113" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4261,13 +3959,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>149</v>
-      </c>
-      <c r="G114" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4287,13 +3983,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4313,13 +4007,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>149</v>
-      </c>
-      <c r="G116" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4339,13 +4031,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4365,13 +4055,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>149</v>
-      </c>
-      <c r="G118" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4391,13 +4079,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4417,13 +4103,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>149</v>
-      </c>
-      <c r="G120" t="s">
-        <v>150</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4443,13 +4127,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>111</v>
-      </c>
-      <c r="G121" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4469,13 +4151,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>159</v>
-      </c>
-      <c r="G122" t="s">
-        <v>160</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4495,13 +4175,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4521,13 +4199,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>159</v>
-      </c>
-      <c r="G124" t="s">
-        <v>160</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4547,13 +4223,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4573,13 +4247,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>159</v>
-      </c>
-      <c r="G126" t="s">
-        <v>160</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4599,13 +4271,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4625,13 +4295,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>159</v>
-      </c>
-      <c r="G128" t="s">
-        <v>160</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4651,13 +4319,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4677,13 +4343,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>159</v>
-      </c>
-      <c r="G130" t="s">
-        <v>160</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4703,13 +4367,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>111</v>
-      </c>
-      <c r="G131" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4729,13 +4391,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>171</v>
-      </c>
-      <c r="G132" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4755,13 +4415,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>171</v>
-      </c>
-      <c r="G133" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4781,13 +4439,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4807,13 +4463,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>171</v>
-      </c>
-      <c r="G135" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4833,13 +4487,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4859,13 +4511,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>171</v>
-      </c>
-      <c r="G137" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4885,13 +4535,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4911,13 +4559,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>171</v>
-      </c>
-      <c r="G139" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4937,13 +4583,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>111</v>
-      </c>
-      <c r="G140" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4963,13 +4607,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>171</v>
-      </c>
-      <c r="G141" t="s">
-        <v>172</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4989,13 +4631,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>111</v>
-      </c>
-      <c r="G142" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5015,13 +4655,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>184</v>
-      </c>
-      <c r="G143" t="s">
-        <v>185</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5041,13 +4679,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
-      </c>
-      <c r="G144" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5067,13 +4703,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>184</v>
-      </c>
-      <c r="G145" t="s">
-        <v>185</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5093,13 +4727,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5119,13 +4751,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>184</v>
-      </c>
-      <c r="G147" t="s">
-        <v>185</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5145,13 +4775,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5171,13 +4799,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>184</v>
-      </c>
-      <c r="G149" t="s">
-        <v>185</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5197,13 +4823,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5223,13 +4847,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>184</v>
-      </c>
-      <c r="G151" t="s">
-        <v>185</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5249,13 +4871,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>111</v>
-      </c>
-      <c r="G152" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5275,13 +4895,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>23</v>
-      </c>
-      <c r="G153" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5301,13 +4919,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>111</v>
-      </c>
-      <c r="G154" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5327,13 +4943,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>23</v>
-      </c>
-      <c r="G155" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5353,13 +4967,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>111</v>
-      </c>
-      <c r="G156" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5379,13 +4991,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>23</v>
-      </c>
-      <c r="G157" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5405,13 +5015,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>111</v>
-      </c>
-      <c r="G158" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5431,13 +5039,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>202</v>
-      </c>
-      <c r="G159" t="s">
-        <v>203</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5457,13 +5063,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5483,13 +5087,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>202</v>
-      </c>
-      <c r="G161" t="s">
-        <v>203</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5509,13 +5111,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5535,13 +5135,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>202</v>
-      </c>
-      <c r="G163" t="s">
-        <v>203</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5561,13 +5159,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
-      </c>
-      <c r="G164" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5587,13 +5183,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>202</v>
-      </c>
-      <c r="G165" t="s">
-        <v>203</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5613,13 +5207,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5639,13 +5231,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>202</v>
-      </c>
-      <c r="G167" t="s">
-        <v>203</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5665,13 +5255,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>23</v>
-      </c>
-      <c r="G168" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5691,13 +5279,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>202</v>
-      </c>
-      <c r="G169" t="s">
-        <v>203</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5717,13 +5303,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
-      </c>
-      <c r="G170" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5743,13 +5327,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>202</v>
-      </c>
-      <c r="G171" t="s">
-        <v>203</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5769,13 +5351,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>23</v>
-      </c>
-      <c r="G172" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5795,13 +5375,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>202</v>
-      </c>
-      <c r="G173" t="s">
-        <v>203</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5821,13 +5399,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>111</v>
-      </c>
-      <c r="G174" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5847,13 +5423,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>220</v>
-      </c>
-      <c r="G175" t="s">
-        <v>221</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5873,13 +5447,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
-      </c>
-      <c r="G176" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5899,13 +5471,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>220</v>
-      </c>
-      <c r="G177" t="s">
-        <v>221</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5925,13 +5495,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>23</v>
-      </c>
-      <c r="G178" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5951,13 +5519,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>220</v>
-      </c>
-      <c r="G179" t="s">
-        <v>221</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5977,13 +5543,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>111</v>
-      </c>
-      <c r="G180" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6003,13 +5567,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>228</v>
-      </c>
-      <c r="G181" t="s">
-        <v>229</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6029,13 +5591,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>23</v>
-      </c>
-      <c r="G182" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6055,13 +5615,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>228</v>
-      </c>
-      <c r="G183" t="s">
-        <v>229</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6081,13 +5639,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>111</v>
-      </c>
-      <c r="G184" t="s">
-        <v>112</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6107,13 +5663,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>234</v>
-      </c>
-      <c r="G185" t="s">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6133,13 +5687,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>23</v>
-      </c>
-      <c r="G186" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6159,13 +5711,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>234</v>
-      </c>
-      <c r="G187" t="s">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6185,13 +5735,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>23</v>
-      </c>
-      <c r="G188" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6211,13 +5759,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>234</v>
-      </c>
-      <c r="G189" t="s">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6237,13 +5783,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>23</v>
-      </c>
-      <c r="G190" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6263,13 +5807,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>234</v>
-      </c>
-      <c r="G191" t="s">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6289,13 +5831,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>23</v>
-      </c>
-      <c r="G192" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6315,13 +5855,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>234</v>
-      </c>
-      <c r="G193" t="s">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6341,13 +5879,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>23</v>
-      </c>
-      <c r="G194" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6367,13 +5903,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>234</v>
-      </c>
-      <c r="G195" t="s">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6393,13 +5927,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>247</v>
-      </c>
-      <c r="G196" t="s">
-        <v>248</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6419,13 +5951,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>234</v>
-      </c>
-      <c r="G197" t="s">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6445,13 +5975,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>247</v>
-      </c>
-      <c r="G198" t="s">
-        <v>248</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6471,13 +5999,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>251</v>
-      </c>
-      <c r="G199" t="s">
-        <v>252</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6497,13 +6023,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>23</v>
-      </c>
-      <c r="G200" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6523,13 +6047,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>251</v>
-      </c>
-      <c r="G201" t="s">
-        <v>252</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6549,13 +6071,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>23</v>
-      </c>
-      <c r="G202" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6575,13 +6095,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>251</v>
-      </c>
-      <c r="G203" t="s">
-        <v>252</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6601,13 +6119,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>23</v>
-      </c>
-      <c r="G204" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6627,13 +6143,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>251</v>
-      </c>
-      <c r="G205" t="s">
-        <v>252</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6653,13 +6167,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>23</v>
-      </c>
-      <c r="G206" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6679,13 +6191,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>23</v>
-      </c>
-      <c r="G207" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6705,13 +6215,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>247</v>
-      </c>
-      <c r="G208" t="s">
-        <v>248</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6731,13 +6239,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>263</v>
-      </c>
-      <c r="G209" t="s">
-        <v>264</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6757,13 +6263,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>23</v>
-      </c>
-      <c r="G210" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6783,13 +6287,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>263</v>
-      </c>
-      <c r="G211" t="s">
-        <v>264</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6809,13 +6311,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>23</v>
-      </c>
-      <c r="G212" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6835,13 +6335,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>263</v>
-      </c>
-      <c r="G213" t="s">
-        <v>264</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6861,13 +6359,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>23</v>
-      </c>
-      <c r="G214" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6887,13 +6383,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>263</v>
-      </c>
-      <c r="G215" t="s">
-        <v>264</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6913,13 +6407,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>23</v>
-      </c>
-      <c r="G216" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6939,13 +6431,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>263</v>
-      </c>
-      <c r="G217" t="s">
-        <v>264</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6965,13 +6455,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>247</v>
-      </c>
-      <c r="G218" t="s">
-        <v>248</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6991,13 +6479,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>275</v>
-      </c>
-      <c r="G219" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7017,13 +6503,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>23</v>
-      </c>
-      <c r="G220" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7043,13 +6527,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>275</v>
-      </c>
-      <c r="G221" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7069,13 +6551,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>23</v>
-      </c>
-      <c r="G222" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7095,13 +6575,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>275</v>
-      </c>
-      <c r="G223" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7121,13 +6599,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>23</v>
-      </c>
-      <c r="G224" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7147,13 +6623,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>275</v>
-      </c>
-      <c r="G225" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7173,13 +6647,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>23</v>
-      </c>
-      <c r="G226" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7199,13 +6671,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>275</v>
-      </c>
-      <c r="G227" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7225,13 +6695,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>23</v>
-      </c>
-      <c r="G228" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7251,13 +6719,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>275</v>
-      </c>
-      <c r="G229" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7277,13 +6743,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>23</v>
-      </c>
-      <c r="G230" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7303,13 +6767,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>275</v>
-      </c>
-      <c r="G231" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7329,13 +6791,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>23</v>
-      </c>
-      <c r="G232" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7355,13 +6815,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>275</v>
-      </c>
-      <c r="G233" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7381,13 +6839,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>23</v>
-      </c>
-      <c r="G234" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7407,13 +6863,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>275</v>
-      </c>
-      <c r="G235" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7433,13 +6887,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>23</v>
-      </c>
-      <c r="G236" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7459,13 +6911,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>275</v>
-      </c>
-      <c r="G237" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7485,13 +6935,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>23</v>
-      </c>
-      <c r="G238" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7511,13 +6959,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>275</v>
-      </c>
-      <c r="G239" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7537,13 +6983,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>23</v>
-      </c>
-      <c r="G240" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7563,13 +7007,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>275</v>
-      </c>
-      <c r="G241" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7589,13 +7031,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>23</v>
-      </c>
-      <c r="G242" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7615,13 +7055,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
+        <v>250</v>
+      </c>
+      <c r="G243" t="s"/>
+      <c r="H243" t="s">
         <v>275</v>
-      </c>
-      <c r="G243" t="s">
-        <v>276</v>
-      </c>
-      <c r="H243" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7641,13 +7079,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>23</v>
-      </c>
-      <c r="G244" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7667,13 +7103,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>275</v>
-      </c>
-      <c r="G245" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7693,13 +7127,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>23</v>
-      </c>
-      <c r="G246" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7719,13 +7151,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>275</v>
-      </c>
-      <c r="G247" t="s">
-        <v>276</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7745,13 +7175,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>247</v>
-      </c>
-      <c r="G248" t="s">
-        <v>248</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7771,13 +7199,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>23</v>
-      </c>
-      <c r="G249" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7797,13 +7223,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>247</v>
-      </c>
-      <c r="G250" t="s">
-        <v>248</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7823,13 +7247,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>23</v>
-      </c>
-      <c r="G251" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7849,13 +7271,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>247</v>
-      </c>
-      <c r="G252" t="s">
-        <v>248</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7875,13 +7295,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>23</v>
-      </c>
-      <c r="G253" t="s">
-        <v>31</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7901,13 +7319,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>247</v>
-      </c>
-      <c r="G254" t="s">
-        <v>248</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
